--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yupi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yupi\yubi\yubi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF756E6F-D024-F543-BF1B-5BFCE872F8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3973D527-E1FD-45D9-A825-F4D88AA44611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2660" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="0" yWindow="228" windowWidth="23040" windowHeight="12732" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -37,28 +27,41 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>小数</t>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>用户数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>aa</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>整数</t>
+    <t>2号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>字符串</t>
+    <t>3号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="18"/>
@@ -83,14 +86,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,17 +118,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,43 +439,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
-  <cols>
-    <col min="4" max="4" width="10.77734375" style="5"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44844</v>
+      <c r="B4">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
